--- a/S_测试用例与缺陷记录01.xlsx
+++ b/S_测试用例与缺陷记录01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A85393C-EB16-46D6-A599-66561804259A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58C442B5-80D0-43AC-8A44-CDFB7D336ABD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="缺陷记录" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="378">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1862,6 +1862,10 @@
   </si>
   <si>
     <t>4.4.2.S……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试git的pull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2734,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61D0684-ACAD-4FFC-A467-CAE00C4DCC8B}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4476,6 +4480,11 @@
       </c>
       <c r="G77" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
